--- a/Assets/Excel/LevelData.xlsx
+++ b/Assets/Excel/LevelData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UGit\QA_Simulator\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UGit\QA_Simulator\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8702E22-AACC-426E-AFCF-AF2D11862A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B560631F-1968-480E-B546-5C91ADCE9543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30612" yWindow="600" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>LevelNum</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,6 +40,10 @@
   </si>
   <si>
     <t>0,1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -365,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -378,7 +382,7 @@
     <col min="3" max="3" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -388,8 +392,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -398,6 +405,9 @@
       </c>
       <c r="C2" t="s">
         <v>3</v>
+      </c>
+      <c r="D2">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/LevelData.xlsx
+++ b/Assets/Excel/LevelData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UGit\QA_Simulator\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B560631F-1968-480E-B546-5C91ADCE9543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1897D2-56F0-4023-8BC3-A64E83420FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="600" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>LevelNum</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,6 +44,14 @@
   </si>
   <si>
     <t>LevelTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rules</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -369,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -380,9 +388,10 @@
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
     <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -395,8 +404,11 @@
       <c r="D1" t="s">
         <v>4</v>
       </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -408,6 +420,9 @@
       </c>
       <c r="D2">
         <v>120</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
